--- a/benchmarks/results.xlsx
+++ b/benchmarks/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compute" sheetId="1" r:id="rId1"/>
@@ -719,10 +719,91 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,101 +821,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -857,6 +848,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,6 +874,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,22 +917,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,39 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1020,7 +1020,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> comparison in different scenarios</a:t>
+              <a:t> in different scenarios</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -1384,11 +1384,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2145508288"/>
-        <c:axId val="-2145504896"/>
+        <c:axId val="-2086088416"/>
+        <c:axId val="-2086084960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145508288"/>
+        <c:axId val="-2086088416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1431,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145504896"/>
+        <c:crossAx val="-2086084960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145504896"/>
+        <c:axId val="-2086084960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1550,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145508288"/>
+        <c:crossAx val="-2086088416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1670,7 +1670,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> capacity test execution time comparison</a:t>
+              <a:t> capacity execution time </a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2034,11 +2034,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2147244944"/>
-        <c:axId val="-2147248352"/>
+        <c:axId val="-2086017680"/>
+        <c:axId val="-2086013872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147244944"/>
+        <c:axId val="-2086017680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2081,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147248352"/>
+        <c:crossAx val="-2086013872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147248352"/>
+        <c:axId val="-2086013872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2201,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147244944"/>
+        <c:crossAx val="-2086017680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,11 +2653,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2147315760"/>
-        <c:axId val="-2147319280"/>
+        <c:axId val="-2084662032"/>
+        <c:axId val="-2084658528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147315760"/>
+        <c:axId val="-2084662032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2700,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147319280"/>
+        <c:crossAx val="-2084658528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147319280"/>
+        <c:axId val="-2084658528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2820,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147315760"/>
+        <c:crossAx val="-2084662032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3272,11 +3272,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2147370848"/>
-        <c:axId val="-2147374368"/>
+        <c:axId val="-2084606176"/>
+        <c:axId val="-2084602672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147370848"/>
+        <c:axId val="-2084606176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,7 +3319,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147374368"/>
+        <c:crossAx val="-2084602672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3327,7 +3327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147374368"/>
+        <c:axId val="-2084602672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3439,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147370848"/>
+        <c:crossAx val="-2084606176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3891,11 +3891,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2147425648"/>
-        <c:axId val="-2147429168"/>
+        <c:axId val="-2085561744"/>
+        <c:axId val="-2085565264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147425648"/>
+        <c:axId val="-2085561744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +3938,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147429168"/>
+        <c:crossAx val="-2085565264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3946,7 +3946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147429168"/>
+        <c:axId val="-2085565264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4054,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147425648"/>
+        <c:crossAx val="-2085561744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4506,11 +4506,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2147478736"/>
-        <c:axId val="-2147482256"/>
+        <c:axId val="-2085616176"/>
+        <c:axId val="-2083430528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147478736"/>
+        <c:axId val="-2085616176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4553,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147482256"/>
+        <c:crossAx val="-2083430528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4561,7 +4561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147482256"/>
+        <c:axId val="-2083430528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4669,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147478736"/>
+        <c:crossAx val="-2085616176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5008,11 +5008,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2143820480"/>
-        <c:axId val="-2143816976"/>
+        <c:axId val="-2085943648"/>
+        <c:axId val="-2085940208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143820480"/>
+        <c:axId val="-2085943648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,7 +5055,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143816976"/>
+        <c:crossAx val="-2085940208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5063,7 +5063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143816976"/>
+        <c:axId val="-2085940208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="9300.0"/>
@@ -5176,7 +5176,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143820480"/>
+        <c:crossAx val="-2085943648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25.0"/>
@@ -5586,11 +5586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2067011440"/>
-        <c:axId val="-2066794560"/>
+        <c:axId val="-2085886800"/>
+        <c:axId val="-2085883760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067011440"/>
+        <c:axId val="-2085886800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5599,7 +5599,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066794560"/>
+        <c:crossAx val="-2085883760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5607,7 +5607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066794560"/>
+        <c:axId val="-2085883760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5714,7 +5714,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067011440"/>
+        <c:crossAx val="-2085886800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10394,7 +10394,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10409,10 +10409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="70"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10437,20 +10437,20 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="47"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="76"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -10459,13 +10459,13 @@
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -10475,37 +10475,37 @@
       <c r="I2" s="10">
         <v>291.67290000000003</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="57">
         <v>53662518000</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="46">
         <f>$J$2/POWER(1024,3)</f>
         <v>49.977114424109459</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="67">
         <f>$K$2/$A$3</f>
         <v>0.7808924128767103</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -10514,20 +10514,20 @@
       <c r="B3" s="4">
         <v>80</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="11">
         <v>1321.7739999999999</v>
       </c>
       <c r="I3" s="10">
         <v>287.33170000000001</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="68"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
       <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
@@ -10560,19 +10560,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="11">
         <v>1326.5139999999999</v>
       </c>
       <c r="I4" s="10">
         <v>286.30509999999998</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="55"/>
-      <c r="O4" s="41" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="68"/>
+      <c r="O4" s="49" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -10620,19 +10620,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E5" s="42"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="11">
         <v>1253.393</v>
       </c>
       <c r="I5" s="10">
         <v>303.00760000000002</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="55"/>
-      <c r="O5" s="42"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="68"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="17" t="s">
         <v>29</v>
       </c>
@@ -10678,23 +10678,23 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="71"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="11">
         <v>1275.9639999999999</v>
       </c>
       <c r="I6" s="10">
         <v>297.64749999999998</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="O6" s="42"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="69"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="17" t="s">
         <v>30</v>
       </c>
@@ -10740,16 +10740,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
+      <c r="A7" s="50">
         <f xml:space="preserve"> (A3*B3)/100</f>
         <v>51.2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42" t="s">
+      <c r="B7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -10759,18 +10759,18 @@
       <c r="I7" s="10">
         <v>253.60390000000001</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="57">
         <v>54976958812</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="51">
         <f>$J$7/POWER(1024,3)</f>
         <v>51.201282825320959</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="67">
         <f>$K$7/$A$3</f>
         <v>0.80002004414563999</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="17" t="s">
         <v>31</v>
       </c>
@@ -10816,21 +10816,21 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="11">
         <v>1421.211</v>
       </c>
       <c r="I8" s="10">
         <v>267.22829999999999</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="55"/>
-      <c r="O8" s="42"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="68"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="17" t="s">
         <v>32</v>
       </c>
@@ -10876,19 +10876,19 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="11">
         <v>1474</v>
       </c>
       <c r="I9" s="10">
         <v>257.64100000000002</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="55"/>
-      <c r="O9" s="43"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="68"/>
+      <c r="O9" s="72"/>
       <c r="P9" s="18" t="s">
         <v>33</v>
       </c>
@@ -10934,19 +10934,19 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="11">
         <v>1223.837</v>
       </c>
       <c r="I10" s="10">
         <v>310.32530000000003</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="55"/>
-      <c r="O10" s="44" t="s">
+      <c r="J10" s="58"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="68"/>
+      <c r="O10" s="73" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="17" t="s">
@@ -10994,19 +10994,19 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="11">
         <v>1679.0239999999999</v>
       </c>
       <c r="I11" s="10">
         <v>226.19550000000001</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="56"/>
-      <c r="O11" s="42"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="69"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="17" t="s">
         <v>29</v>
       </c>
@@ -11052,13 +11052,13 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11068,18 +11068,18 @@
       <c r="I12" s="10">
         <v>283.4873</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="57">
         <v>53662518000</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="46">
         <f>$J$12/POWER(1024,3)</f>
         <v>49.977114424109459</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="67">
         <f>$K$12/$A$3</f>
         <v>0.7808924128767103</v>
       </c>
-      <c r="O12" s="42"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="17" t="s">
         <v>30</v>
       </c>
@@ -11125,19 +11125,19 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E13" s="41"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="42"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="11">
         <v>1238.6110000000001</v>
       </c>
       <c r="I13" s="10">
         <v>306.62389999999999</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="55"/>
-      <c r="O13" s="42"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="68"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="17" t="s">
         <v>31</v>
       </c>
@@ -11183,19 +11183,19 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E14" s="41"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="42"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="11">
         <v>1425.1980000000001</v>
       </c>
       <c r="I14" s="10">
         <v>266.48059999999998</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="55"/>
-      <c r="O14" s="42"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="68"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="17" t="s">
         <v>32</v>
       </c>
@@ -11241,19 +11241,19 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="41"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="42"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="11">
         <v>1341.9670000000001</v>
       </c>
       <c r="I15" s="10">
         <v>283.00819999999999</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="55"/>
-      <c r="O15" s="43"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="68"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="18" t="s">
         <v>33</v>
       </c>
@@ -11299,25 +11299,25 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E16" s="41"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="42"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="11">
         <v>1320.0129999999999</v>
       </c>
       <c r="I16" s="10">
         <v>287.71510000000001</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="56"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E17" s="41"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11327,82 +11327,82 @@
       <c r="I17" s="10">
         <v>267.24259999999998</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="57">
         <v>54976958812</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="46">
         <f>$J$17/POWER(1024,3)</f>
         <v>51.201282825320959</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="67">
         <f>$K$17/$A$3</f>
         <v>0.80002004414563999</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="11">
         <v>1447.72</v>
       </c>
       <c r="I18" s="10">
         <v>262.33499999999998</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="55"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="11">
         <v>1587.47</v>
       </c>
       <c r="I19" s="10">
         <v>239.24090000000001</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="55"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="11">
         <v>1287.7149999999999</v>
       </c>
       <c r="I20" s="10">
         <v>294.93150000000003</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="55"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="11">
         <v>1519.431</v>
       </c>
       <c r="I21" s="10">
         <v>249.9538</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="56"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="60">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11412,80 +11412,80 @@
       <c r="I22" s="9">
         <v>86.239400000000003</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="57">
         <v>53662518000</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="46">
         <f>$J$22/POWER(1024,3)</f>
         <v>49.977114424109459</v>
       </c>
-      <c r="L22" s="60">
+      <c r="L22" s="47">
         <f>$K$22/$A$3</f>
         <v>0.7808924128767103</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="66"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="12">
         <v>4404.701</v>
       </c>
       <c r="I23" s="9">
         <v>86.223299999999995</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="60"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="66"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="12">
         <v>4406.6440000000002</v>
       </c>
       <c r="I24" s="9">
         <v>86.185199999999995</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="60"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="66"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="12">
         <v>4500.6970000000001</v>
       </c>
       <c r="I25" s="9">
         <v>84.384200000000007</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="60"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="67"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="12">
         <v>4391.6580000000004</v>
       </c>
       <c r="I26" s="9">
         <v>86.479299999999995</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="60"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E27" s="42"/>
-      <c r="F27" s="42" t="s">
+      <c r="E27" s="50"/>
+      <c r="F27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11495,82 +11495,82 @@
       <c r="I27" s="9">
         <v>79.411000000000001</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="57">
         <v>54976958812</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="46">
         <f>$J$27/POWER(1024,3)</f>
         <v>51.201282825320959</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="47">
         <f>$K$27/$A$3</f>
         <v>0.80002004414563999</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="12">
         <v>4436.9960000000001</v>
       </c>
       <c r="I28" s="9">
         <v>85.595699999999994</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="60"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="12">
         <v>5205.9129999999996</v>
       </c>
       <c r="I29" s="9">
         <v>72.953100000000006</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="60"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="12">
         <v>4832.7650000000003</v>
       </c>
       <c r="I30" s="9">
         <v>75.938199999999995</v>
       </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="60"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="12">
         <v>4593.3850000000002</v>
       </c>
       <c r="I31" s="10">
         <v>81.945800000000006</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="60"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="63">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11580,80 +11580,80 @@
       <c r="I32" s="10">
         <v>95.378</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="55">
         <v>53662518000</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="46">
         <f>$J$32/POWER(1024,3)</f>
         <v>49.977114424109459</v>
       </c>
-      <c r="L32" s="60">
+      <c r="L32" s="47">
         <f>$K$32/$A$3</f>
         <v>0.7808924128767103</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="63"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="64"/>
       <c r="H33" s="11">
         <v>4032.5259999999998</v>
       </c>
       <c r="I33" s="10">
         <v>94.181100000000001</v>
       </c>
-      <c r="J33" s="70"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="60"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="63"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="11">
         <v>3993.0340000000001</v>
       </c>
       <c r="I34" s="10">
         <v>95.1126</v>
       </c>
-      <c r="J34" s="70"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="60"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="63"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="11">
         <v>3994.1729999999998</v>
       </c>
       <c r="I35" s="10">
         <v>95.008399999999995</v>
       </c>
-      <c r="J35" s="70"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="60"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="64"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="11">
         <v>3984.0340000000001</v>
       </c>
       <c r="I36" s="10">
         <v>95.327399999999997</v>
       </c>
-      <c r="J36" s="70"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="60"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E37" s="42"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="50"/>
+      <c r="F37" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11663,82 +11663,82 @@
       <c r="I37" s="10">
         <v>85.764399999999995</v>
       </c>
-      <c r="J37" s="69">
+      <c r="J37" s="48">
         <v>54976958812</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="46">
         <f>$J$37/POWER(1024,3)</f>
         <v>51.201282825320959</v>
       </c>
-      <c r="L37" s="60">
+      <c r="L37" s="47">
         <f>$K$37/$A$3</f>
         <v>0.80002004414563999</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="11">
         <v>4384.1729999999998</v>
       </c>
       <c r="I38" s="10">
         <v>86.626999999999995</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="60"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="47"/>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="11">
         <v>5341.8549999999996</v>
       </c>
       <c r="I39" s="10">
         <v>71.096599999999995</v>
       </c>
-      <c r="J39" s="69"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="60"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="11">
         <v>4975.4970000000003</v>
       </c>
       <c r="I40" s="10">
         <v>83.349800000000002</v>
       </c>
-      <c r="J40" s="69"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="60"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="11">
         <v>4739.1840000000002</v>
       </c>
       <c r="I41" s="10">
         <v>85.838999999999999</v>
       </c>
-      <c r="J41" s="69"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="60"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="68">
+      <c r="G42" s="56">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11748,80 +11748,80 @@
       <c r="I42" s="7">
         <v>88.031999999999996</v>
       </c>
-      <c r="J42" s="69">
+      <c r="J42" s="48">
         <v>53662518000</v>
       </c>
-      <c r="K42" s="57">
+      <c r="K42" s="51">
         <f>$J$42/POWER(1024,3)</f>
         <v>49.977114424109459</v>
       </c>
-      <c r="L42" s="71">
+      <c r="L42" s="54">
         <f>$K$42/$A$3</f>
         <v>0.7808924128767103</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="68"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="8">
         <v>4392.8670000000002</v>
       </c>
       <c r="I43" s="7">
         <v>86.455500000000001</v>
       </c>
-      <c r="J43" s="69"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="71"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="54"/>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="68"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="8">
         <v>4399.1970000000001</v>
       </c>
       <c r="I44" s="7">
         <v>86.331100000000006</v>
       </c>
-      <c r="J44" s="69"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="71"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="68"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="8">
         <v>4472.6400000000003</v>
       </c>
       <c r="I45" s="7">
         <v>84.913499999999999</v>
       </c>
-      <c r="J45" s="69"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="71"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="54"/>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="68"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="8">
         <v>4509.4759999999997</v>
       </c>
       <c r="I46" s="7">
         <v>84.219899999999996</v>
       </c>
-      <c r="J46" s="69"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="71"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E47" s="42"/>
-      <c r="F47" s="42" t="s">
+      <c r="E47" s="50"/>
+      <c r="F47" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11831,82 +11831,82 @@
       <c r="I47" s="3">
         <v>79.6143</v>
       </c>
-      <c r="J47" s="69">
+      <c r="J47" s="48">
         <v>54976958812</v>
       </c>
-      <c r="K47" s="57">
+      <c r="K47" s="51">
         <f>$J$47/POWER(1024,3)</f>
         <v>51.201282825320959</v>
       </c>
-      <c r="L47" s="60">
+      <c r="L47" s="47">
         <f>$K$47/$A$3</f>
         <v>0.80002004414563999</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="3">
         <v>4949.6170000000002</v>
       </c>
       <c r="I48" s="3">
         <v>76.730699999999999</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="60"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="47"/>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="3">
         <v>4874.567</v>
       </c>
       <c r="I49" s="3">
         <v>78.749300000000005</v>
       </c>
-      <c r="J49" s="69"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="60"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="47"/>
     </row>
     <row r="50" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="3">
         <v>4802.0469999999996</v>
       </c>
       <c r="I50" s="3">
         <v>78.873400000000004</v>
       </c>
-      <c r="J50" s="69"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="60"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="47"/>
     </row>
     <row r="51" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="3">
         <v>4956.9260000000004</v>
       </c>
       <c r="I51" s="3">
         <v>77.530199999999994</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="52" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11916,80 +11916,80 @@
       <c r="I52" s="3">
         <v>94.237499999999997</v>
       </c>
-      <c r="J52" s="69">
+      <c r="J52" s="48">
         <v>53662518000</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="46">
         <f>$J$52/POWER(1024,3)</f>
         <v>49.977114424109459</v>
       </c>
-      <c r="L52" s="60">
+      <c r="L52" s="47">
         <f>$K$52/$A$3</f>
         <v>0.7808924128767103</v>
       </c>
     </row>
     <row r="53" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
       <c r="H53" s="3">
         <v>4056.9259999999999</v>
       </c>
       <c r="I53" s="3">
         <v>93.614599999999996</v>
       </c>
-      <c r="J53" s="69"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="60"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="47"/>
     </row>
     <row r="54" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="3">
         <v>4074.6170000000002</v>
       </c>
       <c r="I54" s="3">
         <v>93.208200000000005</v>
       </c>
-      <c r="J54" s="69"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="60"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
     </row>
     <row r="55" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
       <c r="H55" s="3">
         <v>4147.1890000000003</v>
       </c>
       <c r="I55" s="3">
         <v>91.577100000000002</v>
       </c>
-      <c r="J55" s="69"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="60"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="47"/>
     </row>
     <row r="56" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
       <c r="H56" s="3">
         <v>4082.1680000000001</v>
       </c>
       <c r="I56" s="3">
         <v>93.035799999999995</v>
       </c>
-      <c r="J56" s="69"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="60"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="47"/>
     </row>
     <row r="57" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E57" s="42"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="50"/>
+      <c r="F57" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="50">
         <f>INT(SQRT(($A$7*POWER(1024,3))/8))</f>
         <v>82897</v>
       </c>
@@ -11999,115 +11999,97 @@
       <c r="I57" s="13">
         <v>89.2667</v>
       </c>
-      <c r="J57" s="69">
+      <c r="J57" s="48">
         <v>54976958812</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="46">
         <f>$J$57/POWER(1024,3)</f>
         <v>51.201282825320959</v>
       </c>
-      <c r="L57" s="60">
+      <c r="L57" s="47">
         <f>$K$57/$A$3</f>
         <v>0.80002004414563999</v>
       </c>
     </row>
     <row r="58" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="3">
         <v>4375.2579999999998</v>
       </c>
       <c r="I58" s="13">
         <v>91.294499999999999</v>
       </c>
-      <c r="J58" s="69"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="60"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="47"/>
     </row>
     <row r="59" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="3">
         <v>4394.5720000000001</v>
       </c>
       <c r="I59" s="13">
         <v>89.378399999999999</v>
       </c>
-      <c r="J59" s="69"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="60"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="47"/>
     </row>
     <row r="60" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="3">
         <v>4698.3090000000002</v>
       </c>
       <c r="I60" s="13">
         <v>84.471999999999994</v>
       </c>
-      <c r="J60" s="69"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="60"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="47"/>
     </row>
     <row r="61" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="3">
         <v>4260.1940000000004</v>
       </c>
       <c r="I61" s="13">
         <v>89.769300000000001</v>
       </c>
-      <c r="J61" s="69"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="60"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="K52:K56"/>
-    <mergeCell ref="L52:L56"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="K57:K61"/>
-    <mergeCell ref="L57:L61"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="E52:E61"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="K42:K46"/>
-    <mergeCell ref="L42:L46"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="K37:K41"/>
-    <mergeCell ref="L37:L41"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="E42:E51"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="E32:E41"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="O4:O9"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
     <mergeCell ref="K22:K26"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="L22:L26"/>
@@ -12124,27 +12106,45 @@
     <mergeCell ref="K17:K21"/>
     <mergeCell ref="L17:L21"/>
     <mergeCell ref="J22:J26"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="E32:E41"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="E42:E51"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="E52:E61"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="L57:L61"/>
+    <mergeCell ref="J52:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12155,7 +12155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="H50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H39" workbookViewId="0">
       <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
@@ -12166,77 +12166,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="H1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
@@ -12261,23 +12261,23 @@
         <f>$B$4*$C$4</f>
         <v>2048</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="48">
         <v>16</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="87" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="89">
         <f>(($D$4*1024*4)/8)*$E$4</f>
         <v>16777216</v>
       </c>
-      <c r="L4" s="80">
+      <c r="L4" s="79">
         <f>($K4*24)/POWER(1024,2)</f>
         <v>384</v>
       </c>
@@ -12308,14 +12308,14 @@
         <f>$B$5*$C$5</f>
         <v>20480</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="78"/>
+      <c r="E5" s="48"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="80"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="34">
         <v>21804.553199999998</v>
       </c>
@@ -12330,13 +12330,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H6" s="41"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="80"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="34">
         <v>23243.8253</v>
       </c>
@@ -12351,13 +12351,13 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H7" s="41"/>
-      <c r="I7" s="78"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="80"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="34">
         <v>23930.198899999999</v>
       </c>
@@ -12372,18 +12372,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
+      <c r="H8" s="49"/>
+      <c r="I8" s="49" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="77">
         <f>(($D$5*1024*4)/8)*$E$4</f>
         <v>167772160</v>
       </c>
-      <c r="L8" s="81">
+      <c r="L8" s="80">
         <f t="shared" ref="L8" si="0">($K8*24)/POWER(1024,2)</f>
         <v>3840</v>
       </c>
@@ -12401,13 +12401,13 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="81"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="80"/>
       <c r="M9" s="27">
         <v>35002.686300000001</v>
       </c>
@@ -12422,13 +12422,13 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="80"/>
       <c r="M10" s="27">
         <v>39904.208599999998</v>
       </c>
@@ -12443,13 +12443,13 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="82"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="32">
         <v>39946.1155</v>
       </c>
@@ -12464,20 +12464,20 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="86" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="90">
         <f>(($D$4*1024*4)/8)*$E$4</f>
         <v>16777216</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="82">
         <f t="shared" ref="L12" si="1">($K12*24)/POWER(1024,2)</f>
         <v>384</v>
       </c>
@@ -12495,13 +12495,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H13" s="41"/>
-      <c r="I13" s="78"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="80"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="34">
         <v>18157.040199999999</v>
       </c>
@@ -12516,13 +12516,13 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H14" s="41"/>
-      <c r="I14" s="78"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="80"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="79"/>
       <c r="M14" s="34">
         <v>18965.3995</v>
       </c>
@@ -12537,13 +12537,13 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H15" s="41"/>
-      <c r="I15" s="78"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="80"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="79"/>
       <c r="M15" s="34">
         <v>19480.135900000001</v>
       </c>
@@ -12558,18 +12558,18 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H16" s="41"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="49" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="77">
         <f>(($D$5*1024*4)/8)*$E$4</f>
         <v>167772160</v>
       </c>
-      <c r="L16" s="81">
+      <c r="L16" s="80">
         <f t="shared" ref="L16" si="2">($K16*24)/POWER(1024,2)</f>
         <v>3840</v>
       </c>
@@ -12587,13 +12587,13 @@
       </c>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="81"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="27">
         <v>34577.005400000002</v>
       </c>
@@ -12608,13 +12608,13 @@
       </c>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="81"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="27">
         <v>39856.839200000002</v>
       </c>
@@ -12629,13 +12629,13 @@
       </c>
     </row>
     <row r="19" spans="8:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="41"/>
-      <c r="I19" s="77"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="88"/>
       <c r="J19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="82"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="32">
         <v>39917.696100000001</v>
       </c>
@@ -12650,20 +12650,20 @@
       </c>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="79" t="s">
+      <c r="I20" s="86" t="s">
         <v>47</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="90">
         <f>(($D$4*1024*4)/8)*$E$4</f>
         <v>16777216</v>
       </c>
-      <c r="L20" s="83">
+      <c r="L20" s="82">
         <f t="shared" ref="L20" si="3">($K20*24)/POWER(1024,2)</f>
         <v>384</v>
       </c>
@@ -12681,13 +12681,13 @@
       </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H21" s="41"/>
-      <c r="I21" s="78"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="87"/>
       <c r="J21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="76"/>
-      <c r="L21" s="80"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="34">
         <v>14775.9771</v>
       </c>
@@ -12702,13 +12702,13 @@
       </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H22" s="41"/>
-      <c r="I22" s="78"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="87"/>
       <c r="J22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="80"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="79"/>
       <c r="M22" s="34">
         <v>15341.604600000001</v>
       </c>
@@ -12723,13 +12723,13 @@
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H23" s="41"/>
-      <c r="I23" s="78"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="76"/>
-      <c r="L23" s="80"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="79"/>
       <c r="M23" s="34">
         <v>18268.303599999999</v>
       </c>
@@ -12744,18 +12744,18 @@
       </c>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H24" s="41"/>
-      <c r="I24" s="84" t="s">
+      <c r="H24" s="49"/>
+      <c r="I24" s="83" t="s">
         <v>48</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="73">
+      <c r="K24" s="77">
         <f>(($D$5*1024*4)/8)*$E$4</f>
         <v>167772160</v>
       </c>
-      <c r="L24" s="81">
+      <c r="L24" s="80">
         <f t="shared" ref="L24" si="4">($K24*24)/POWER(1024,2)</f>
         <v>3840</v>
       </c>
@@ -12773,13 +12773,13 @@
       </c>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H25" s="41"/>
-      <c r="I25" s="85"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="84"/>
       <c r="J25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="73"/>
-      <c r="L25" s="81"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="27">
         <v>19309.957600000002</v>
       </c>
@@ -12794,13 +12794,13 @@
       </c>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H26" s="41"/>
-      <c r="I26" s="85"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="73"/>
-      <c r="L26" s="81"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="27">
         <v>22034.444899999999</v>
       </c>
@@ -12815,13 +12815,13 @@
       </c>
     </row>
     <row r="27" spans="8:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="41"/>
-      <c r="I27" s="86"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="85"/>
       <c r="J27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="82"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="32">
         <v>22993.128100000002</v>
       </c>
@@ -12836,20 +12836,20 @@
       </c>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="79" t="s">
+      <c r="I28" s="86" t="s">
         <v>47</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="90">
         <f>(($D$4*1024*4)/8)*$E$4</f>
         <v>16777216</v>
       </c>
-      <c r="L28" s="83">
+      <c r="L28" s="82">
         <f t="shared" ref="L28" si="5">($K28*24)/POWER(1024,2)</f>
         <v>384</v>
       </c>
@@ -12867,13 +12867,13 @@
       </c>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H29" s="41"/>
-      <c r="I29" s="78"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="80"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="79"/>
       <c r="M29" s="34">
         <v>16022.2554</v>
       </c>
@@ -12888,13 +12888,13 @@
       </c>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H30" s="41"/>
-      <c r="I30" s="78"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="87"/>
       <c r="J30" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="76"/>
-      <c r="L30" s="80"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="79"/>
       <c r="M30" s="34">
         <v>21185.567200000001</v>
       </c>
@@ -12909,13 +12909,13 @@
       </c>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H31" s="41"/>
-      <c r="I31" s="78"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="87"/>
       <c r="J31" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="80"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="79"/>
       <c r="M31" s="34">
         <v>20452.809799999999</v>
       </c>
@@ -12930,18 +12930,18 @@
       </c>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H32" s="41"/>
-      <c r="I32" s="41" t="s">
+      <c r="H32" s="49"/>
+      <c r="I32" s="49" t="s">
         <v>48</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="77">
         <f>(($D$5*1024*4)/8)*$E$4</f>
         <v>167772160</v>
       </c>
-      <c r="L32" s="81">
+      <c r="L32" s="80">
         <f t="shared" ref="L32" si="6">($K32*24)/POWER(1024,2)</f>
         <v>3840</v>
       </c>
@@ -12959,13 +12959,13 @@
       </c>
     </row>
     <row r="33" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="81"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="80"/>
       <c r="M33" s="27">
         <v>20331</v>
       </c>
@@ -12980,13 +12980,13 @@
       </c>
     </row>
     <row r="34" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="81"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="80"/>
       <c r="M34" s="27">
         <v>23684.9061</v>
       </c>
@@ -13001,13 +13001,13 @@
       </c>
     </row>
     <row r="35" spans="8:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
       <c r="J35" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="74"/>
-      <c r="L35" s="82"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="81"/>
       <c r="M35" s="32">
         <v>20177.875700000001</v>
       </c>
@@ -13023,6 +13023,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="I20:I23"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="K32:K35"/>
     <mergeCell ref="L4:L7"/>
@@ -13039,33 +13066,6 @@
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13077,7 +13077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -13093,78 +13093,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-      <c r="P1" s="100" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="98"/>
+      <c r="P1" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="102"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="115"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="105"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="100"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="118"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
       <c r="S3" s="16" t="s">
         <v>22</v>
       </c>
@@ -13179,35 +13179,35 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="98"/>
+      <c r="J4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="94" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="96"/>
+      <c r="M4" s="98"/>
       <c r="P4" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="92" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="33" t="s">
@@ -13229,37 +13229,37 @@
         <f>_xlfn.STDEV.P($B$6:$B$65)</f>
         <v>0.67106126766145369</v>
       </c>
-      <c r="W4" s="106"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="97"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="107"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="42"/>
       <c r="P5" s="110"/>
-      <c r="Q5" s="88"/>
+      <c r="Q5" s="93"/>
       <c r="R5" s="3" t="s">
         <v>55</v>
       </c>
@@ -13279,7 +13279,7 @@
         <f>_xlfn.STDEV.P($C$6:$C$65)</f>
         <v>0.60647260600824426</v>
       </c>
-      <c r="W5" s="106"/>
+      <c r="W5" s="41"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -13291,32 +13291,32 @@
       <c r="C6" s="27">
         <v>9410.3983000000007</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="103">
         <v>39.659500000000001</v>
       </c>
-      <c r="E6" s="118"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="27">
         <v>9394.6275999999998</v>
       </c>
       <c r="G6" s="27">
         <v>9391.2968999999994</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="101">
         <v>79.889099999999999</v>
       </c>
-      <c r="I6" s="112"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="27">
         <v>9357.9626000000007</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="43">
         <v>9354.1262999999999</v>
       </c>
-      <c r="L6" s="115">
+      <c r="L6" s="95">
         <v>71.373000000000005</v>
       </c>
-      <c r="M6" s="116"/>
+      <c r="M6" s="96"/>
       <c r="P6" s="110"/>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="50" t="s">
         <v>56</v>
       </c>
       <c r="R6" s="33" t="s">
@@ -13350,32 +13350,32 @@
       <c r="C7" s="27">
         <v>9414.5737000000008</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="103">
         <v>37.4756</v>
       </c>
-      <c r="E7" s="118"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="27">
         <v>9393.3261000000002</v>
       </c>
       <c r="G7" s="27">
         <v>9390.5800999999992</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="101">
         <v>79.660799999999995</v>
       </c>
-      <c r="I7" s="112"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="27">
         <v>9358.0072</v>
       </c>
-      <c r="K7" s="108">
+      <c r="K7" s="43">
         <v>9353.8587000000007</v>
       </c>
-      <c r="L7" s="115">
+      <c r="L7" s="95">
         <v>74.772300000000001</v>
       </c>
-      <c r="M7" s="116"/>
+      <c r="M7" s="96"/>
       <c r="P7" s="110"/>
-      <c r="Q7" s="42"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="3" t="s">
         <v>55</v>
       </c>
@@ -13407,32 +13407,32 @@
       <c r="C8" s="27">
         <v>9414.6960999999992</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="103">
         <v>40.166899999999998</v>
       </c>
-      <c r="E8" s="118"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="27">
         <v>9394.5769999999993</v>
       </c>
       <c r="G8" s="27">
         <v>9389.4002999999993</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="101">
         <v>78.643500000000003</v>
       </c>
-      <c r="I8" s="112"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="27">
         <v>9357.9577000000008</v>
       </c>
-      <c r="K8" s="108">
+      <c r="K8" s="43">
         <v>9354.2212</v>
       </c>
-      <c r="L8" s="115">
+      <c r="L8" s="95">
         <v>72.997299999999996</v>
       </c>
-      <c r="M8" s="116"/>
+      <c r="M8" s="96"/>
       <c r="P8" s="110"/>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="50" t="s">
         <v>45</v>
       </c>
       <c r="R8" s="33" t="s">
@@ -13466,33 +13466,33 @@
       <c r="C9" s="27">
         <v>9414.6208000000006</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="103">
         <v>41.9236</v>
       </c>
-      <c r="E9" s="118"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="27">
         <v>9391.9781000000003</v>
       </c>
       <c r="G9" s="27">
         <v>9390.4766999999993</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="101">
         <v>78.299099999999996</v>
       </c>
-      <c r="I9" s="112"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="27">
         <v>9358.5630999999994</v>
       </c>
-      <c r="K9" s="108">
+      <c r="K9" s="43">
         <v>9355.3840999999993</v>
       </c>
-      <c r="L9" s="115">
+      <c r="L9" s="95">
         <v>71.521900000000002</v>
       </c>
-      <c r="M9" s="116"/>
+      <c r="M9" s="96"/>
       <c r="P9" s="110"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="113" t="s">
+      <c r="Q9" s="92"/>
+      <c r="R9" s="44" t="s">
         <v>55</v>
       </c>
       <c r="S9" s="38">
@@ -13523,37 +13523,37 @@
       <c r="C10" s="27">
         <v>9414.6208000000006</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="103">
         <v>40.375700000000002</v>
       </c>
-      <c r="E10" s="118"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="27">
         <v>9392.6587999999992</v>
       </c>
       <c r="G10" s="27">
         <v>9391.1317999999992</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="101">
         <v>75.893100000000004</v>
       </c>
-      <c r="I10" s="112"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="27">
         <v>9356.9251999999997</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="43">
         <v>9354.4233000000004</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="95">
         <v>71.149299999999997</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="P10" s="48" t="s">
+      <c r="M10" s="96"/>
+      <c r="P10" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="42"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="40">
         <f>MIN($D$6:$D$65)</f>
         <v>37.229599999999998</v>
@@ -13582,48 +13582,48 @@
       <c r="C11" s="27">
         <v>9414.5455000000002</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="103">
         <v>41.522599999999997</v>
       </c>
-      <c r="E11" s="118"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="27">
         <v>9392.2518</v>
       </c>
       <c r="G11" s="27">
         <v>9389.8161999999993</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="101">
         <v>73.748400000000004</v>
       </c>
-      <c r="I11" s="112"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="27">
         <v>9356.8688999999995</v>
       </c>
-      <c r="K11" s="108">
+      <c r="K11" s="43">
         <v>9354.0650999999998</v>
       </c>
-      <c r="L11" s="115">
+      <c r="L11" s="95">
         <v>72.602599999999995</v>
       </c>
-      <c r="M11" s="116"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="42" t="s">
+      <c r="M11" s="96"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="114">
+      <c r="R11" s="50"/>
+      <c r="S11" s="45">
         <f>MIN($H$6:$H$65)</f>
         <v>73.084299999999999</v>
       </c>
-      <c r="T11" s="114">
+      <c r="T11" s="45">
         <f>MAX($H$6:$H$65)</f>
         <v>79.889099999999999</v>
       </c>
-      <c r="U11" s="114">
+      <c r="U11" s="45">
         <f>AVERAGE($H$6:$H$65)</f>
         <v>76.295855000000032</v>
       </c>
-      <c r="V11" s="114">
+      <c r="V11" s="45">
         <f>_xlfn.STDEV.P($H$6:$H$65)</f>
         <v>1.8604768431260659</v>
       </c>
@@ -13639,35 +13639,35 @@
       <c r="C12" s="27">
         <v>9414.7903000000006</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="103">
         <v>40.561399999999999</v>
       </c>
-      <c r="E12" s="118"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="27">
         <v>9393.4868000000006</v>
       </c>
       <c r="G12" s="27">
         <v>9389.8076999999994</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="101">
         <v>79.722399999999993</v>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="27">
         <v>9357.0715</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="43">
         <v>9353.6983</v>
       </c>
-      <c r="L12" s="115">
+      <c r="L12" s="95">
         <v>71.041499999999999</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="42" t="s">
+      <c r="M12" s="96"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="42"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="39">
         <f>MIN($L$6:$L$65)</f>
         <v>69.049800000000005</v>
@@ -13696,30 +13696,30 @@
       <c r="C13" s="27">
         <v>9414.6301999999996</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="103">
         <v>37.388800000000003</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="27">
         <v>9393.0198</v>
       </c>
       <c r="G13" s="27">
         <v>9390.1681000000008</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="101">
         <v>73.197800000000001</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="27">
         <v>9358.2070000000003</v>
       </c>
-      <c r="K13" s="108">
+      <c r="K13" s="43">
         <v>9354.1823000000004</v>
       </c>
-      <c r="L13" s="115">
+      <c r="L13" s="95">
         <v>74.156899999999993</v>
       </c>
-      <c r="M13" s="116"/>
+      <c r="M13" s="96"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
@@ -13732,30 +13732,30 @@
       <c r="C14" s="27">
         <v>9414.6489999999994</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="103">
         <v>38.094700000000003</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="27">
         <v>9393.4</v>
       </c>
       <c r="G14" s="27">
         <v>9390.0745000000006</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="101">
         <v>76.629599999999996</v>
       </c>
-      <c r="I14" s="112"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="27">
         <v>9357.4902000000002</v>
       </c>
-      <c r="K14" s="108">
+      <c r="K14" s="43">
         <v>9354.2201999999997</v>
       </c>
-      <c r="L14" s="115">
+      <c r="L14" s="95">
         <v>71.39</v>
       </c>
-      <c r="M14" s="116"/>
+      <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
@@ -13768,30 +13768,30 @@
       <c r="C15" s="27">
         <v>9414.6301999999996</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="103">
         <v>37.974699999999999</v>
       </c>
-      <c r="E15" s="118"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="27">
         <v>9393.9637000000002</v>
       </c>
       <c r="G15" s="27">
         <v>9389.7158999999992</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="101">
         <v>78.588800000000006</v>
       </c>
-      <c r="I15" s="112"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="27">
         <v>9357.9784</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="43">
         <v>9354.1151000000009</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15" s="95">
         <v>69.930700000000002</v>
       </c>
-      <c r="M15" s="116"/>
+      <c r="M15" s="96"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
@@ -13804,30 +13804,30 @@
       <c r="C16" s="27">
         <v>9414.6584000000003</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="103">
         <v>37.229599999999998</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="104"/>
       <c r="F16" s="27">
         <v>9394.4001000000007</v>
       </c>
       <c r="G16" s="27">
         <v>9390.3359</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="101">
         <v>77.9221</v>
       </c>
-      <c r="I16" s="112"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="27">
         <v>9358.4161000000004</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="43">
         <v>9355.1029999999992</v>
       </c>
-      <c r="L16" s="115">
+      <c r="L16" s="95">
         <v>72.934299999999993</v>
       </c>
-      <c r="M16" s="116"/>
+      <c r="M16" s="96"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
@@ -13840,30 +13840,30 @@
       <c r="C17" s="27">
         <v>9414.6396000000004</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="103">
         <v>40.978999999999999</v>
       </c>
-      <c r="E17" s="118"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="27">
         <v>9394.8187999999991</v>
       </c>
       <c r="G17" s="27">
         <v>9390.1756000000005</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="101">
         <v>77.358099999999993</v>
       </c>
-      <c r="I17" s="112"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="27">
         <v>9357.9555999999993</v>
       </c>
-      <c r="K17" s="108">
+      <c r="K17" s="43">
         <v>9355.0107000000007</v>
       </c>
-      <c r="L17" s="115">
+      <c r="L17" s="95">
         <v>70.774500000000003</v>
       </c>
-      <c r="M17" s="116"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
@@ -13876,30 +13876,30 @@
       <c r="C18" s="27">
         <v>9414.4325000000008</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="103">
         <v>40.411799999999999</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="27">
         <v>9392.8243999999995</v>
       </c>
       <c r="G18" s="27">
         <v>9390.7374</v>
       </c>
-      <c r="H18" s="111">
+      <c r="H18" s="101">
         <v>77.352900000000005</v>
       </c>
-      <c r="I18" s="112"/>
+      <c r="I18" s="102"/>
       <c r="J18" s="27">
         <v>9357.5921999999991</v>
       </c>
-      <c r="K18" s="108">
+      <c r="K18" s="43">
         <v>9355.2551999999996</v>
       </c>
-      <c r="L18" s="115">
+      <c r="L18" s="95">
         <v>70.783500000000004</v>
       </c>
-      <c r="M18" s="116"/>
+      <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
@@ -13912,30 +13912,30 @@
       <c r="C19" s="27">
         <v>9414.6679000000004</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="103">
         <v>41.289200000000001</v>
       </c>
-      <c r="E19" s="118"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="27">
         <v>9393.9336000000003</v>
       </c>
       <c r="G19" s="27">
         <v>9389.8937999999998</v>
       </c>
-      <c r="H19" s="111">
+      <c r="H19" s="101">
         <v>76.445899999999995</v>
       </c>
-      <c r="I19" s="112"/>
+      <c r="I19" s="102"/>
       <c r="J19" s="27">
         <v>9358.1959000000006</v>
       </c>
-      <c r="K19" s="108">
+      <c r="K19" s="43">
         <v>9353.7111000000004</v>
       </c>
-      <c r="L19" s="115">
+      <c r="L19" s="95">
         <v>72.339600000000004</v>
       </c>
-      <c r="M19" s="116"/>
+      <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
@@ -13948,30 +13948,30 @@
       <c r="C20" s="27">
         <v>9415.2769000000008</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="103">
         <v>40.319000000000003</v>
       </c>
-      <c r="E20" s="118"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="27">
         <v>9393.6604000000007</v>
       </c>
       <c r="G20" s="27">
         <v>9390.6245999999992</v>
       </c>
-      <c r="H20" s="111">
+      <c r="H20" s="101">
         <v>76.778400000000005</v>
       </c>
-      <c r="I20" s="112"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="27">
         <v>9357.5609000000004</v>
       </c>
-      <c r="K20" s="108">
+      <c r="K20" s="43">
         <v>9354.0755000000008</v>
       </c>
-      <c r="L20" s="115">
+      <c r="L20" s="95">
         <v>69.212699999999998</v>
       </c>
-      <c r="M20" s="116"/>
+      <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
@@ -13984,30 +13984,30 @@
       <c r="C21" s="27">
         <v>9415.2769000000008</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="103">
         <v>40.066099999999999</v>
       </c>
-      <c r="E21" s="118"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="27">
         <v>9393.6587999999992</v>
       </c>
       <c r="G21" s="27">
         <v>9391.3858</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="101">
         <v>74.764499999999998</v>
       </c>
-      <c r="I21" s="112"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="27">
         <v>9357.7019999999993</v>
       </c>
-      <c r="K21" s="108">
+      <c r="K21" s="43">
         <v>9354.7029000000002</v>
       </c>
-      <c r="L21" s="115">
+      <c r="L21" s="95">
         <v>69.220399999999998</v>
       </c>
-      <c r="M21" s="116"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
@@ -14020,30 +14020,30 @@
       <c r="C22" s="27">
         <v>9414.0964999999997</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="103">
         <v>41.430700000000002</v>
       </c>
-      <c r="E22" s="118"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="27">
         <v>9393.4724000000006</v>
       </c>
       <c r="G22" s="27">
         <v>9389.4390000000003</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="101">
         <v>77.792199999999994</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="27">
         <v>9358.5421000000006</v>
       </c>
-      <c r="K22" s="108">
+      <c r="K22" s="43">
         <v>9353.9946999999993</v>
       </c>
-      <c r="L22" s="115">
+      <c r="L22" s="95">
         <v>72.123999999999995</v>
       </c>
-      <c r="M22" s="116"/>
+      <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
@@ -14056,30 +14056,30 @@
       <c r="C23" s="27">
         <v>9415.2486000000008</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="103">
         <v>38.853000000000002</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="27">
         <v>9394.0596000000005</v>
       </c>
       <c r="G23" s="27">
         <v>9390.8829000000005</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="101">
         <v>76.2607</v>
       </c>
-      <c r="I23" s="112"/>
+      <c r="I23" s="102"/>
       <c r="J23" s="27">
         <v>9358.8477999999996</v>
       </c>
-      <c r="K23" s="108">
+      <c r="K23" s="43">
         <v>9354.6638999999996</v>
       </c>
-      <c r="L23" s="115">
+      <c r="L23" s="95">
         <v>70.423100000000005</v>
       </c>
-      <c r="M23" s="116"/>
+      <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
@@ -14092,30 +14092,30 @@
       <c r="C24" s="27">
         <v>9414.5548999999992</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="103">
         <v>38.723700000000001</v>
       </c>
-      <c r="E24" s="118"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="27">
         <v>9393.3544000000002</v>
       </c>
       <c r="G24" s="27">
         <v>9390.0761000000002</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="101">
         <v>73.290800000000004</v>
       </c>
-      <c r="I24" s="112"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="27">
         <v>9357.5576000000001</v>
       </c>
-      <c r="K24" s="108">
+      <c r="K24" s="43">
         <v>9353.8358000000007</v>
       </c>
-      <c r="L24" s="115">
+      <c r="L24" s="95">
         <v>72.140199999999993</v>
       </c>
-      <c r="M24" s="116"/>
+      <c r="M24" s="96"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
@@ -14128,30 +14128,30 @@
       <c r="C25" s="27">
         <v>9414.7242999999999</v>
       </c>
-      <c r="D25" s="117">
+      <c r="D25" s="103">
         <v>38.715600000000002</v>
       </c>
-      <c r="E25" s="118"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="27">
         <v>9392.5306999999993</v>
       </c>
       <c r="G25" s="27">
         <v>9390.1178999999993</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="101">
         <v>74.000399999999999</v>
       </c>
-      <c r="I25" s="112"/>
+      <c r="I25" s="102"/>
       <c r="J25" s="27">
         <v>9356.9897000000001</v>
       </c>
-      <c r="K25" s="108">
+      <c r="K25" s="43">
         <v>9353.5455999999995</v>
       </c>
-      <c r="L25" s="115">
+      <c r="L25" s="95">
         <v>71.449299999999994</v>
       </c>
-      <c r="M25" s="116"/>
+      <c r="M25" s="96"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
@@ -14164,30 +14164,30 @@
       <c r="C26" s="27">
         <v>9414.5925000000007</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="103">
         <v>38.173000000000002</v>
       </c>
-      <c r="E26" s="118"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="27">
         <v>9393.3888000000006</v>
       </c>
       <c r="G26" s="27">
         <v>9389.8793999999998</v>
       </c>
-      <c r="H26" s="111">
+      <c r="H26" s="101">
         <v>74.2547</v>
       </c>
-      <c r="I26" s="112"/>
+      <c r="I26" s="102"/>
       <c r="J26" s="27">
         <v>9356.9017999999996</v>
       </c>
-      <c r="K26" s="108">
+      <c r="K26" s="43">
         <v>9354.7402999999995</v>
       </c>
-      <c r="L26" s="115">
+      <c r="L26" s="95">
         <v>71.563999999999993</v>
       </c>
-      <c r="M26" s="116"/>
+      <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
@@ -14200,30 +14200,30 @@
       <c r="C27" s="27">
         <v>9414.6113999999998</v>
       </c>
-      <c r="D27" s="117">
+      <c r="D27" s="103">
         <v>39.984299999999998</v>
       </c>
-      <c r="E27" s="118"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="27">
         <v>9393.8485000000001</v>
       </c>
       <c r="G27" s="27">
         <v>9389.5697</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="101">
         <v>77.1691</v>
       </c>
-      <c r="I27" s="112"/>
+      <c r="I27" s="102"/>
       <c r="J27" s="27">
         <v>9358.8065999999999</v>
       </c>
-      <c r="K27" s="108">
+      <c r="K27" s="43">
         <v>9355.3057000000008</v>
       </c>
-      <c r="L27" s="115">
+      <c r="L27" s="95">
         <v>74.768600000000006</v>
       </c>
-      <c r="M27" s="116"/>
+      <c r="M27" s="96"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
@@ -14236,30 +14236,30 @@
       <c r="C28" s="27">
         <v>9414.6301999999996</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="103">
         <v>38.342100000000002</v>
       </c>
-      <c r="E28" s="118"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="27">
         <v>9393.5730000000003</v>
       </c>
       <c r="G28" s="27">
         <v>9389.9279000000006</v>
       </c>
-      <c r="H28" s="111">
+      <c r="H28" s="101">
         <v>74.986699999999999</v>
       </c>
-      <c r="I28" s="112"/>
+      <c r="I28" s="102"/>
       <c r="J28" s="27">
         <v>9357.5280000000002</v>
       </c>
-      <c r="K28" s="108">
+      <c r="K28" s="43">
         <v>9355.0712999999996</v>
       </c>
-      <c r="L28" s="115">
+      <c r="L28" s="95">
         <v>70.587800000000001</v>
       </c>
-      <c r="M28" s="116"/>
+      <c r="M28" s="96"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
@@ -14272,30 +14272,30 @@
       <c r="C29" s="27">
         <v>9414.6679000000004</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D29" s="103">
         <v>37.896099999999997</v>
       </c>
-      <c r="E29" s="118"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="27">
         <v>9393.1913999999997</v>
       </c>
       <c r="G29" s="27">
         <v>9391.1702000000005</v>
       </c>
-      <c r="H29" s="111">
+      <c r="H29" s="101">
         <v>74.760800000000003</v>
       </c>
-      <c r="I29" s="112"/>
+      <c r="I29" s="102"/>
       <c r="J29" s="27">
         <v>9358.5030000000006</v>
       </c>
-      <c r="K29" s="108">
+      <c r="K29" s="43">
         <v>9355.2492000000002</v>
       </c>
-      <c r="L29" s="115">
+      <c r="L29" s="95">
         <v>73.620199999999997</v>
       </c>
-      <c r="M29" s="116"/>
+      <c r="M29" s="96"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
@@ -14308,30 +14308,30 @@
       <c r="C30" s="27">
         <v>9414.6113999999998</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="103">
         <v>38.688299999999998</v>
       </c>
-      <c r="E30" s="118"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="27">
         <v>9392.3125999999993</v>
       </c>
       <c r="G30" s="27">
         <v>9389.7697000000007</v>
       </c>
-      <c r="H30" s="111">
+      <c r="H30" s="101">
         <v>76.214500000000001</v>
       </c>
-      <c r="I30" s="112"/>
+      <c r="I30" s="102"/>
       <c r="J30" s="27">
         <v>9357.9716000000008</v>
       </c>
-      <c r="K30" s="108">
+      <c r="K30" s="43">
         <v>9355.2270000000008</v>
       </c>
-      <c r="L30" s="115">
+      <c r="L30" s="95">
         <v>73.687200000000004</v>
       </c>
-      <c r="M30" s="116"/>
+      <c r="M30" s="96"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
@@ -14344,30 +14344,30 @@
       <c r="C31" s="27">
         <v>9414.6489999999994</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="103">
         <v>41.621899999999997</v>
       </c>
-      <c r="E31" s="118"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="27">
         <v>9392.1206000000002</v>
       </c>
       <c r="G31" s="27">
         <v>9389.9668000000001</v>
       </c>
-      <c r="H31" s="111">
+      <c r="H31" s="101">
         <v>75.545599999999993</v>
       </c>
-      <c r="I31" s="112"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="27">
         <v>9356.9097999999994</v>
       </c>
-      <c r="K31" s="108">
+      <c r="K31" s="43">
         <v>9354.5733999999993</v>
       </c>
-      <c r="L31" s="115">
+      <c r="L31" s="95">
         <v>72.194199999999995</v>
       </c>
-      <c r="M31" s="116"/>
+      <c r="M31" s="96"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
@@ -14380,30 +14380,30 @@
       <c r="C32" s="27">
         <v>9414.6208000000006</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="103">
         <v>40.564</v>
       </c>
-      <c r="E32" s="118"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="27">
         <v>9393.7603999999992</v>
       </c>
       <c r="G32" s="27">
         <v>9390.1427000000003</v>
       </c>
-      <c r="H32" s="111">
+      <c r="H32" s="101">
         <v>74.752600000000001</v>
       </c>
-      <c r="I32" s="112"/>
+      <c r="I32" s="102"/>
       <c r="J32" s="27">
         <v>9357.4616999999998</v>
       </c>
-      <c r="K32" s="108">
+      <c r="K32" s="43">
         <v>9354.6962000000003</v>
       </c>
-      <c r="L32" s="115">
+      <c r="L32" s="95">
         <v>70.495500000000007</v>
       </c>
-      <c r="M32" s="116"/>
+      <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
@@ -14416,30 +14416,30 @@
       <c r="C33" s="27">
         <v>9414.6020000000008</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="103">
         <v>37.6599</v>
       </c>
-      <c r="E33" s="118"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="27">
         <v>9392.6165000000001</v>
       </c>
       <c r="G33" s="27">
         <v>9389.9739000000009</v>
       </c>
-      <c r="H33" s="111">
+      <c r="H33" s="101">
         <v>76.075400000000002</v>
       </c>
-      <c r="I33" s="112"/>
+      <c r="I33" s="102"/>
       <c r="J33" s="27">
         <v>9358.8364000000001</v>
       </c>
-      <c r="K33" s="108">
+      <c r="K33" s="43">
         <v>9354.3063999999995</v>
       </c>
-      <c r="L33" s="115">
+      <c r="L33" s="95">
         <v>71.530299999999997</v>
       </c>
-      <c r="M33" s="116"/>
+      <c r="M33" s="96"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
@@ -14452,30 +14452,30 @@
       <c r="C34" s="27">
         <v>9414.6772999999994</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="103">
         <v>38.0274</v>
       </c>
-      <c r="E34" s="118"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="27">
         <v>9394.8341</v>
       </c>
       <c r="G34" s="27">
         <v>9390.9588999999996</v>
       </c>
-      <c r="H34" s="111">
+      <c r="H34" s="101">
         <v>76.846699999999998</v>
       </c>
-      <c r="I34" s="112"/>
+      <c r="I34" s="102"/>
       <c r="J34" s="27">
         <v>9357.3687000000009</v>
       </c>
-      <c r="K34" s="108">
+      <c r="K34" s="43">
         <v>9355.2379000000001</v>
       </c>
-      <c r="L34" s="115">
+      <c r="L34" s="95">
         <v>71.658500000000004</v>
       </c>
-      <c r="M34" s="116"/>
+      <c r="M34" s="96"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
@@ -14488,30 +14488,30 @@
       <c r="C35" s="27">
         <v>9415.2204000000002</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="103">
         <v>41.241500000000002</v>
       </c>
-      <c r="E35" s="118"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="27">
         <v>9394.4889999999996</v>
       </c>
       <c r="G35" s="27">
         <v>9390.4761999999992</v>
       </c>
-      <c r="H35" s="111">
+      <c r="H35" s="101">
         <v>77.779799999999994</v>
       </c>
-      <c r="I35" s="112"/>
+      <c r="I35" s="102"/>
       <c r="J35" s="27">
         <v>9358.2548999999999</v>
       </c>
-      <c r="K35" s="108">
+      <c r="K35" s="43">
         <v>9354.2510999999995</v>
       </c>
-      <c r="L35" s="115">
+      <c r="L35" s="95">
         <v>71.308000000000007</v>
       </c>
-      <c r="M35" s="116"/>
+      <c r="M35" s="96"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
@@ -14524,30 +14524,30 @@
       <c r="C36" s="27">
         <v>9414.5737000000008</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="103">
         <v>37.720799999999997</v>
       </c>
-      <c r="E36" s="118"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="27">
         <v>9394.4838999999993</v>
       </c>
       <c r="G36" s="27">
         <v>9390.2099999999991</v>
       </c>
-      <c r="H36" s="111">
+      <c r="H36" s="101">
         <v>79.507099999999994</v>
       </c>
-      <c r="I36" s="112"/>
+      <c r="I36" s="102"/>
       <c r="J36" s="27">
         <v>9357.3703000000005</v>
       </c>
-      <c r="K36" s="108">
+      <c r="K36" s="43">
         <v>9355.1964000000007</v>
       </c>
-      <c r="L36" s="115">
+      <c r="L36" s="95">
         <v>73.718000000000004</v>
       </c>
-      <c r="M36" s="116"/>
+      <c r="M36" s="96"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
@@ -14560,30 +14560,30 @@
       <c r="C37" s="27">
         <v>9414.6113999999998</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="103">
         <v>37.6233</v>
       </c>
-      <c r="E37" s="118"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="27">
         <v>9394.2813999999998</v>
       </c>
       <c r="G37" s="27">
         <v>9390.4668999999994</v>
       </c>
-      <c r="H37" s="111">
+      <c r="H37" s="101">
         <v>75.738399999999999</v>
       </c>
-      <c r="I37" s="112"/>
+      <c r="I37" s="102"/>
       <c r="J37" s="27">
         <v>9357.9377000000004</v>
       </c>
-      <c r="K37" s="108">
+      <c r="K37" s="43">
         <v>9353.4524000000001</v>
       </c>
-      <c r="L37" s="115">
+      <c r="L37" s="95">
         <v>71.8703</v>
       </c>
-      <c r="M37" s="116"/>
+      <c r="M37" s="96"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
@@ -14596,30 +14596,30 @@
       <c r="C38" s="27">
         <v>9414.5265999999992</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="103">
         <v>38.809800000000003</v>
       </c>
-      <c r="E38" s="118"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="27">
         <v>9392.3572999999997</v>
       </c>
       <c r="G38" s="27">
         <v>9390.5609999999997</v>
       </c>
-      <c r="H38" s="111">
+      <c r="H38" s="101">
         <v>78.679500000000004</v>
       </c>
-      <c r="I38" s="112"/>
+      <c r="I38" s="102"/>
       <c r="J38" s="27">
         <v>9356.8773000000001</v>
       </c>
-      <c r="K38" s="108">
+      <c r="K38" s="43">
         <v>9353.7487999999994</v>
       </c>
-      <c r="L38" s="115">
+      <c r="L38" s="95">
         <v>74.910399999999996</v>
       </c>
-      <c r="M38" s="116"/>
+      <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
@@ -14632,30 +14632,30 @@
       <c r="C39" s="27">
         <v>9414.3413</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="103">
         <v>41.249699999999997</v>
       </c>
-      <c r="E39" s="118"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="27">
         <v>9392.7626999999993</v>
       </c>
       <c r="G39" s="27">
         <v>9390.6957999999995</v>
       </c>
-      <c r="H39" s="111">
+      <c r="H39" s="101">
         <v>73.4148</v>
       </c>
-      <c r="I39" s="112"/>
+      <c r="I39" s="102"/>
       <c r="J39" s="27">
         <v>9357.8464999999997</v>
       </c>
-      <c r="K39" s="108">
+      <c r="K39" s="43">
         <v>9354.6666000000005</v>
       </c>
-      <c r="L39" s="115">
+      <c r="L39" s="95">
         <v>72.159400000000005</v>
       </c>
-      <c r="M39" s="116"/>
+      <c r="M39" s="96"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
@@ -14668,30 +14668,30 @@
       <c r="C40" s="27">
         <v>9415.1450999999997</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="103">
         <v>39.2318</v>
       </c>
-      <c r="E40" s="118"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="27">
         <v>9391.9719999999998</v>
       </c>
       <c r="G40" s="27">
         <v>9390.5082999999995</v>
       </c>
-      <c r="H40" s="111">
+      <c r="H40" s="101">
         <v>74.464799999999997</v>
       </c>
-      <c r="I40" s="112"/>
+      <c r="I40" s="102"/>
       <c r="J40" s="27">
         <v>9357.6098999999995</v>
       </c>
-      <c r="K40" s="108">
+      <c r="K40" s="43">
         <v>9355.3389999999999</v>
       </c>
-      <c r="L40" s="115">
+      <c r="L40" s="95">
         <v>73.192599999999999</v>
       </c>
-      <c r="M40" s="116"/>
+      <c r="M40" s="96"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
@@ -14704,30 +14704,30 @@
       <c r="C41" s="27">
         <v>9414.1247000000003</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="103">
         <v>41.442799999999998</v>
       </c>
-      <c r="E41" s="118"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="27">
         <v>9393.3423999999995</v>
       </c>
       <c r="G41" s="27">
         <v>9391.0735999999997</v>
       </c>
-      <c r="H41" s="111">
+      <c r="H41" s="101">
         <v>77.527299999999997</v>
       </c>
-      <c r="I41" s="112"/>
+      <c r="I41" s="102"/>
       <c r="J41" s="27">
         <v>9357.8102999999992</v>
       </c>
-      <c r="K41" s="108">
+      <c r="K41" s="43">
         <v>9354.6005999999998</v>
       </c>
-      <c r="L41" s="115">
+      <c r="L41" s="95">
         <v>70.909599999999998</v>
       </c>
-      <c r="M41" s="116"/>
+      <c r="M41" s="96"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
@@ -14740,30 +14740,30 @@
       <c r="C42" s="27">
         <v>9415.0697999999993</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="103">
         <v>38.924500000000002</v>
       </c>
-      <c r="E42" s="118"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="27">
         <v>9393.4133000000002</v>
       </c>
       <c r="G42" s="27">
         <v>9389.9277999999995</v>
       </c>
-      <c r="H42" s="111">
+      <c r="H42" s="101">
         <v>74.585499999999996</v>
       </c>
-      <c r="I42" s="112"/>
+      <c r="I42" s="102"/>
       <c r="J42" s="27">
         <v>9358.3055999999997</v>
       </c>
-      <c r="K42" s="108">
+      <c r="K42" s="43">
         <v>9354.7634999999991</v>
       </c>
-      <c r="L42" s="115">
+      <c r="L42" s="95">
         <v>73.926299999999998</v>
       </c>
-      <c r="M42" s="116"/>
+      <c r="M42" s="96"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
@@ -14776,30 +14776,30 @@
       <c r="C43" s="27">
         <v>9414.6489999999994</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="103">
         <v>37.502200000000002</v>
       </c>
-      <c r="E43" s="118"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="27">
         <v>9392.1275000000005</v>
       </c>
       <c r="G43" s="27">
         <v>9389.8996999999999</v>
       </c>
-      <c r="H43" s="111">
+      <c r="H43" s="101">
         <v>76.914199999999994</v>
       </c>
-      <c r="I43" s="112"/>
+      <c r="I43" s="102"/>
       <c r="J43" s="27">
         <v>9357.9406999999992</v>
       </c>
-      <c r="K43" s="108">
+      <c r="K43" s="43">
         <v>9353.5038999999997</v>
       </c>
-      <c r="L43" s="115">
+      <c r="L43" s="95">
         <v>71.378399999999999</v>
       </c>
-      <c r="M43" s="116"/>
+      <c r="M43" s="96"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
@@ -14812,30 +14812,30 @@
       <c r="C44" s="27">
         <v>9414.7055</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="103">
         <v>37.861899999999999</v>
       </c>
-      <c r="E44" s="118"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="27">
         <v>9393.0527000000002</v>
       </c>
       <c r="G44" s="27">
         <v>9389.5730999999996</v>
       </c>
-      <c r="H44" s="111">
+      <c r="H44" s="101">
         <v>76.533299999999997</v>
       </c>
-      <c r="I44" s="112"/>
+      <c r="I44" s="102"/>
       <c r="J44" s="27">
         <v>9358.4289000000008</v>
       </c>
-      <c r="K44" s="108">
+      <c r="K44" s="43">
         <v>9355.1205000000009</v>
       </c>
-      <c r="L44" s="115">
+      <c r="L44" s="95">
         <v>74.119799999999998</v>
       </c>
-      <c r="M44" s="116"/>
+      <c r="M44" s="96"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
@@ -14848,30 +14848,30 @@
       <c r="C45" s="27">
         <v>9414.6113999999998</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="103">
         <v>41.8262</v>
       </c>
-      <c r="E45" s="118"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="27">
         <v>9394.2073</v>
       </c>
       <c r="G45" s="27">
         <v>9391.1106</v>
       </c>
-      <c r="H45" s="111">
+      <c r="H45" s="101">
         <v>73.481899999999996</v>
       </c>
-      <c r="I45" s="112"/>
+      <c r="I45" s="102"/>
       <c r="J45" s="27">
         <v>9357.3001999999997</v>
       </c>
-      <c r="K45" s="108">
+      <c r="K45" s="43">
         <v>9353.5167999999994</v>
       </c>
-      <c r="L45" s="115">
+      <c r="L45" s="95">
         <v>70.813500000000005</v>
       </c>
-      <c r="M45" s="116"/>
+      <c r="M45" s="96"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
@@ -14884,30 +14884,30 @@
       <c r="C46" s="27">
         <v>9414.6867000000002</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="103">
         <v>37.284399999999998</v>
       </c>
-      <c r="E46" s="118"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="27">
         <v>9394.5360000000001</v>
       </c>
       <c r="G46" s="27">
         <v>9389.4714000000004</v>
       </c>
-      <c r="H46" s="111">
+      <c r="H46" s="101">
         <v>78.707800000000006</v>
       </c>
-      <c r="I46" s="112"/>
+      <c r="I46" s="102"/>
       <c r="J46" s="27">
         <v>9358.2554999999993</v>
       </c>
-      <c r="K46" s="108">
+      <c r="K46" s="43">
         <v>9353.8160000000007</v>
       </c>
-      <c r="L46" s="115">
+      <c r="L46" s="95">
         <v>73.136200000000002</v>
       </c>
-      <c r="M46" s="116"/>
+      <c r="M46" s="96"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
@@ -14920,30 +14920,30 @@
       <c r="C47" s="27">
         <v>9414.4984000000004</v>
       </c>
-      <c r="D47" s="117">
+      <c r="D47" s="103">
         <v>41.576099999999997</v>
       </c>
-      <c r="E47" s="118"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="27">
         <v>9392.3353000000006</v>
       </c>
       <c r="G47" s="27">
         <v>9391.2667999999994</v>
       </c>
-      <c r="H47" s="111">
+      <c r="H47" s="101">
         <v>75.808899999999994</v>
       </c>
-      <c r="I47" s="112"/>
+      <c r="I47" s="102"/>
       <c r="J47" s="27">
         <v>9356.9976000000006</v>
       </c>
-      <c r="K47" s="108">
+      <c r="K47" s="43">
         <v>9355.1702000000005</v>
       </c>
-      <c r="L47" s="115">
+      <c r="L47" s="95">
         <v>70.242900000000006</v>
       </c>
-      <c r="M47" s="116"/>
+      <c r="M47" s="96"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
@@ -14956,30 +14956,30 @@
       <c r="C48" s="27">
         <v>9414.5548999999992</v>
       </c>
-      <c r="D48" s="117">
+      <c r="D48" s="103">
         <v>41.9557</v>
       </c>
-      <c r="E48" s="118"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="27">
         <v>9393.8001000000004</v>
       </c>
       <c r="G48" s="27">
         <v>9389.7268000000004</v>
       </c>
-      <c r="H48" s="111">
+      <c r="H48" s="101">
         <v>73.234399999999994</v>
       </c>
-      <c r="I48" s="112"/>
+      <c r="I48" s="102"/>
       <c r="J48" s="27">
         <v>9357.8189999999995</v>
       </c>
-      <c r="K48" s="108">
+      <c r="K48" s="43">
         <v>9354.5977999999996</v>
       </c>
-      <c r="L48" s="115">
+      <c r="L48" s="95">
         <v>71.2607</v>
       </c>
-      <c r="M48" s="116"/>
+      <c r="M48" s="96"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
@@ -14992,30 +14992,30 @@
       <c r="C49" s="27">
         <v>9414.8091000000004</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="103">
         <v>41.597299999999997</v>
       </c>
-      <c r="E49" s="118"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="27">
         <v>9392.8685000000005</v>
       </c>
       <c r="G49" s="27">
         <v>9391.2518</v>
       </c>
-      <c r="H49" s="111">
+      <c r="H49" s="101">
         <v>75.854100000000003</v>
       </c>
-      <c r="I49" s="112"/>
+      <c r="I49" s="102"/>
       <c r="J49" s="27">
         <v>9357.8030999999992</v>
       </c>
-      <c r="K49" s="108">
+      <c r="K49" s="43">
         <v>9353.9761999999992</v>
       </c>
-      <c r="L49" s="115">
+      <c r="L49" s="95">
         <v>72.538399999999996</v>
       </c>
-      <c r="M49" s="116"/>
+      <c r="M49" s="96"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
@@ -15028,30 +15028,30 @@
       <c r="C50" s="27">
         <v>9414.8091000000004</v>
       </c>
-      <c r="D50" s="117">
+      <c r="D50" s="103">
         <v>39.011400000000002</v>
       </c>
-      <c r="E50" s="118"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="27">
         <v>9394.1497999999992</v>
       </c>
       <c r="G50" s="27">
         <v>9389.5915000000005</v>
       </c>
-      <c r="H50" s="111">
+      <c r="H50" s="101">
         <v>74.499799999999993</v>
       </c>
-      <c r="I50" s="112"/>
+      <c r="I50" s="102"/>
       <c r="J50" s="27">
         <v>9356.9863999999998</v>
       </c>
-      <c r="K50" s="108">
+      <c r="K50" s="43">
         <v>9354.2713999999996</v>
       </c>
-      <c r="L50" s="115">
+      <c r="L50" s="95">
         <v>74.055599999999998</v>
       </c>
-      <c r="M50" s="116"/>
+      <c r="M50" s="96"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
@@ -15064,30 +15064,30 @@
       <c r="C51" s="27">
         <v>9414.6960999999992</v>
       </c>
-      <c r="D51" s="117">
+      <c r="D51" s="103">
         <v>39.436700000000002</v>
       </c>
-      <c r="E51" s="118"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="27">
         <v>9392.3004999999994</v>
       </c>
       <c r="G51" s="27">
         <v>9390.7721999999994</v>
       </c>
-      <c r="H51" s="111">
+      <c r="H51" s="101">
         <v>76.511899999999997</v>
       </c>
-      <c r="I51" s="112"/>
+      <c r="I51" s="102"/>
       <c r="J51" s="27">
         <v>9357.2078999999994</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="43">
         <v>9354.6123000000007</v>
       </c>
-      <c r="L51" s="115">
+      <c r="L51" s="95">
         <v>73.9114</v>
       </c>
-      <c r="M51" s="116"/>
+      <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
@@ -15100,30 +15100,30 @@
       <c r="C52" s="27">
         <v>9414.6396000000004</v>
       </c>
-      <c r="D52" s="117">
+      <c r="D52" s="103">
         <v>39.058500000000002</v>
       </c>
-      <c r="E52" s="118"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="27">
         <v>9393.7787000000008</v>
       </c>
       <c r="G52" s="27">
         <v>9389.6758000000009</v>
       </c>
-      <c r="H52" s="111">
+      <c r="H52" s="101">
         <v>74.6965</v>
       </c>
-      <c r="I52" s="112"/>
+      <c r="I52" s="102"/>
       <c r="J52" s="27">
         <v>9357.7690999999995</v>
       </c>
-      <c r="K52" s="108">
+      <c r="K52" s="43">
         <v>9353.7531999999992</v>
       </c>
-      <c r="L52" s="115">
+      <c r="L52" s="95">
         <v>69.530199999999994</v>
       </c>
-      <c r="M52" s="116"/>
+      <c r="M52" s="96"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
@@ -15136,30 +15136,30 @@
       <c r="C53" s="27">
         <v>9414.5643</v>
       </c>
-      <c r="D53" s="117">
+      <c r="D53" s="103">
         <v>38.637300000000003</v>
       </c>
-      <c r="E53" s="118"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="27">
         <v>9394.6697999999997</v>
       </c>
       <c r="G53" s="27">
         <v>9390.7754000000004</v>
       </c>
-      <c r="H53" s="111">
+      <c r="H53" s="101">
         <v>73.084299999999999</v>
       </c>
-      <c r="I53" s="112"/>
+      <c r="I53" s="102"/>
       <c r="J53" s="27">
         <v>9358.2981999999993</v>
       </c>
-      <c r="K53" s="108">
+      <c r="K53" s="43">
         <v>9354.1893999999993</v>
       </c>
-      <c r="L53" s="115">
+      <c r="L53" s="95">
         <v>72.126599999999996</v>
       </c>
-      <c r="M53" s="116"/>
+      <c r="M53" s="96"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
@@ -15172,30 +15172,30 @@
       <c r="C54" s="27">
         <v>9414.6960999999992</v>
       </c>
-      <c r="D54" s="117">
+      <c r="D54" s="103">
         <v>37.799500000000002</v>
       </c>
-      <c r="E54" s="118"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="27">
         <v>9394.1656000000003</v>
       </c>
       <c r="G54" s="27">
         <v>9390.6612000000005</v>
       </c>
-      <c r="H54" s="111">
+      <c r="H54" s="101">
         <v>79.579800000000006</v>
       </c>
-      <c r="I54" s="112"/>
+      <c r="I54" s="102"/>
       <c r="J54" s="27">
         <v>9358.5930000000008</v>
       </c>
-      <c r="K54" s="108">
+      <c r="K54" s="43">
         <v>9353.7572</v>
       </c>
-      <c r="L54" s="115">
+      <c r="L54" s="95">
         <v>70.345299999999995</v>
       </c>
-      <c r="M54" s="116"/>
+      <c r="M54" s="96"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
@@ -15208,30 +15208,30 @@
       <c r="C55" s="27">
         <v>9414.6020000000008</v>
       </c>
-      <c r="D55" s="117">
+      <c r="D55" s="103">
         <v>40.155000000000001</v>
       </c>
-      <c r="E55" s="118"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="27">
         <v>9392.7433000000001</v>
       </c>
       <c r="G55" s="27">
         <v>9390.4817999999996</v>
       </c>
-      <c r="H55" s="111">
+      <c r="H55" s="101">
         <v>76.831199999999995</v>
       </c>
-      <c r="I55" s="112"/>
+      <c r="I55" s="102"/>
       <c r="J55" s="27">
         <v>9358.5328000000009</v>
       </c>
-      <c r="K55" s="108">
+      <c r="K55" s="43">
         <v>9354.4905999999992</v>
       </c>
-      <c r="L55" s="115">
+      <c r="L55" s="95">
         <v>72.648799999999994</v>
       </c>
-      <c r="M55" s="116"/>
+      <c r="M55" s="96"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
@@ -15244,30 +15244,30 @@
       <c r="C56" s="27">
         <v>9414.6208000000006</v>
       </c>
-      <c r="D56" s="117">
+      <c r="D56" s="103">
         <v>41.060699999999997</v>
       </c>
-      <c r="E56" s="118"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="27">
         <v>9392.7055</v>
       </c>
       <c r="G56" s="27">
         <v>9391.0172999999995</v>
       </c>
-      <c r="H56" s="111">
+      <c r="H56" s="101">
         <v>75.2042</v>
       </c>
-      <c r="I56" s="112"/>
+      <c r="I56" s="102"/>
       <c r="J56" s="27">
         <v>9358.2819</v>
       </c>
-      <c r="K56" s="108">
+      <c r="K56" s="43">
         <v>9353.5393000000004</v>
       </c>
-      <c r="L56" s="115">
+      <c r="L56" s="95">
         <v>70.986999999999995</v>
       </c>
-      <c r="M56" s="116"/>
+      <c r="M56" s="96"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
@@ -15280,30 +15280,30 @@
       <c r="C57" s="27">
         <v>9415.2297999999992</v>
       </c>
-      <c r="D57" s="117">
+      <c r="D57" s="103">
         <v>37.572699999999998</v>
       </c>
-      <c r="E57" s="118"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="27">
         <v>9393.4886000000006</v>
       </c>
       <c r="G57" s="27">
         <v>9390.9303999999993</v>
       </c>
-      <c r="H57" s="111">
+      <c r="H57" s="101">
         <v>75.165700000000001</v>
       </c>
-      <c r="I57" s="112"/>
+      <c r="I57" s="102"/>
       <c r="J57" s="27">
         <v>9358.5053000000007</v>
       </c>
-      <c r="K57" s="108">
+      <c r="K57" s="43">
         <v>9354.9313000000002</v>
       </c>
-      <c r="L57" s="115">
+      <c r="L57" s="95">
         <v>73.251999999999995</v>
       </c>
-      <c r="M57" s="116"/>
+      <c r="M57" s="96"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
@@ -15316,30 +15316,30 @@
       <c r="C58" s="27">
         <v>9414.6208000000006</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="103">
         <v>41.3643</v>
       </c>
-      <c r="E58" s="118"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="27">
         <v>9392.4015999999992</v>
       </c>
       <c r="G58" s="27">
         <v>9389.9303</v>
       </c>
-      <c r="H58" s="111">
+      <c r="H58" s="101">
         <v>79.347899999999996</v>
       </c>
-      <c r="I58" s="112"/>
+      <c r="I58" s="102"/>
       <c r="J58" s="27">
         <v>9358.2235999999994</v>
       </c>
-      <c r="K58" s="108">
+      <c r="K58" s="43">
         <v>9354.7816999999995</v>
       </c>
-      <c r="L58" s="115">
+      <c r="L58" s="95">
         <v>69.049800000000005</v>
       </c>
-      <c r="M58" s="116"/>
+      <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
@@ -15352,30 +15352,30 @@
       <c r="C59" s="27">
         <v>9415.2297999999992</v>
       </c>
-      <c r="D59" s="117">
+      <c r="D59" s="103">
         <v>40.485300000000002</v>
       </c>
-      <c r="E59" s="118"/>
+      <c r="E59" s="104"/>
       <c r="F59" s="27">
         <v>9392.2338</v>
       </c>
       <c r="G59" s="27">
         <v>9390.0805999999993</v>
       </c>
-      <c r="H59" s="111">
+      <c r="H59" s="101">
         <v>76.364699999999999</v>
       </c>
-      <c r="I59" s="112"/>
+      <c r="I59" s="102"/>
       <c r="J59" s="27">
         <v>9358.1524000000009</v>
       </c>
-      <c r="K59" s="108">
+      <c r="K59" s="43">
         <v>9354.8827999999994</v>
       </c>
-      <c r="L59" s="115">
+      <c r="L59" s="95">
         <v>70.079099999999997</v>
       </c>
-      <c r="M59" s="116"/>
+      <c r="M59" s="96"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
@@ -15388,30 +15388,30 @@
       <c r="C60" s="27">
         <v>9414.6113999999998</v>
       </c>
-      <c r="D60" s="117">
+      <c r="D60" s="103">
         <v>38.264099999999999</v>
       </c>
-      <c r="E60" s="118"/>
+      <c r="E60" s="104"/>
       <c r="F60" s="27">
         <v>9394.1203000000005</v>
       </c>
       <c r="G60" s="27">
         <v>9390.7865000000002</v>
       </c>
-      <c r="H60" s="111">
+      <c r="H60" s="101">
         <v>76.520200000000003</v>
       </c>
-      <c r="I60" s="112"/>
+      <c r="I60" s="102"/>
       <c r="J60" s="27">
         <v>9357.9557999999997</v>
       </c>
-      <c r="K60" s="108">
+      <c r="K60" s="43">
         <v>9354.8963999999996</v>
       </c>
-      <c r="L60" s="115">
+      <c r="L60" s="95">
         <v>71.537300000000002</v>
       </c>
-      <c r="M60" s="116"/>
+      <c r="M60" s="96"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
@@ -15424,30 +15424,30 @@
       <c r="C61" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="117">
+      <c r="D61" s="103">
         <v>37.750500000000002</v>
       </c>
-      <c r="E61" s="118"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="27">
         <v>9393.6067000000003</v>
       </c>
       <c r="G61" s="27">
         <v>9389.6779000000006</v>
       </c>
-      <c r="H61" s="111">
+      <c r="H61" s="101">
         <v>75.845600000000005</v>
       </c>
-      <c r="I61" s="112"/>
+      <c r="I61" s="102"/>
       <c r="J61" s="27">
         <v>9357.8938999999991</v>
       </c>
-      <c r="K61" s="108">
+      <c r="K61" s="43">
         <v>9354.5144</v>
       </c>
-      <c r="L61" s="115">
+      <c r="L61" s="95">
         <v>70.557299999999998</v>
       </c>
-      <c r="M61" s="116"/>
+      <c r="M61" s="96"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
@@ -15460,30 +15460,30 @@
       <c r="C62" s="27">
         <v>9414.8184999999994</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="103">
         <v>40.370600000000003</v>
       </c>
-      <c r="E62" s="118"/>
+      <c r="E62" s="104"/>
       <c r="F62" s="27">
         <v>9393.9006000000008</v>
       </c>
       <c r="G62" s="27">
         <v>9391.2057000000004</v>
       </c>
-      <c r="H62" s="111">
+      <c r="H62" s="101">
         <v>75.865300000000005</v>
       </c>
-      <c r="I62" s="112"/>
+      <c r="I62" s="102"/>
       <c r="J62" s="27">
         <v>9358.6111999999994</v>
       </c>
-      <c r="K62" s="108">
+      <c r="K62" s="43">
         <v>9353.7636999999995</v>
       </c>
-      <c r="L62" s="115">
+      <c r="L62" s="95">
         <v>72.382300000000001</v>
       </c>
-      <c r="M62" s="116"/>
+      <c r="M62" s="96"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
@@ -15496,30 +15496,30 @@
       <c r="C63" s="27">
         <v>9414.2095000000008</v>
       </c>
-      <c r="D63" s="117">
+      <c r="D63" s="103">
         <v>37.544600000000003</v>
       </c>
-      <c r="E63" s="118"/>
+      <c r="E63" s="104"/>
       <c r="F63" s="27">
         <v>9393.4647999999997</v>
       </c>
       <c r="G63" s="27">
         <v>9390.2119000000002</v>
       </c>
-      <c r="H63" s="111">
+      <c r="H63" s="101">
         <v>78.269499999999994</v>
       </c>
-      <c r="I63" s="112"/>
+      <c r="I63" s="102"/>
       <c r="J63" s="27">
         <v>9357.5728999999992</v>
       </c>
-      <c r="K63" s="108">
+      <c r="K63" s="43">
         <v>9353.9773000000005</v>
       </c>
-      <c r="L63" s="115">
+      <c r="L63" s="95">
         <v>71.172600000000003</v>
       </c>
-      <c r="M63" s="116"/>
+      <c r="M63" s="96"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
@@ -15532,30 +15532,30 @@
       <c r="C64" s="27">
         <v>9414.5925000000007</v>
       </c>
-      <c r="D64" s="117">
+      <c r="D64" s="103">
         <v>40.442500000000003</v>
       </c>
-      <c r="E64" s="118"/>
+      <c r="E64" s="104"/>
       <c r="F64" s="27">
         <v>9394.3750999999993</v>
       </c>
       <c r="G64" s="27">
         <v>9389.4204000000009</v>
       </c>
-      <c r="H64" s="111">
+      <c r="H64" s="101">
         <v>76.100300000000004</v>
       </c>
-      <c r="I64" s="112"/>
+      <c r="I64" s="102"/>
       <c r="J64" s="27">
         <v>9358.1185000000005</v>
       </c>
-      <c r="K64" s="108">
+      <c r="K64" s="43">
         <v>9355.3220000000001</v>
       </c>
-      <c r="L64" s="115">
+      <c r="L64" s="95">
         <v>69.48</v>
       </c>
-      <c r="M64" s="116"/>
+      <c r="M64" s="96"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
@@ -15568,33 +15568,210 @@
       <c r="C65" s="27">
         <v>9414.6396000000004</v>
       </c>
-      <c r="D65" s="117">
+      <c r="D65" s="103">
         <v>38.011600000000001</v>
       </c>
-      <c r="E65" s="118"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="27">
         <v>9394.3844000000008</v>
       </c>
       <c r="G65" s="27">
         <v>9390.6502999999993</v>
       </c>
-      <c r="H65" s="111">
+      <c r="H65" s="101">
         <v>74.787899999999993</v>
       </c>
-      <c r="I65" s="112"/>
+      <c r="I65" s="102"/>
       <c r="J65" s="27">
         <v>9358.0985999999994</v>
       </c>
-      <c r="K65" s="108">
+      <c r="K65" s="43">
         <v>9354.5925999999999</v>
       </c>
-      <c r="L65" s="115">
+      <c r="L65" s="95">
         <v>72.060400000000001</v>
       </c>
-      <c r="M65" s="116"/>
+      <c r="M65" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="201">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:P9"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="P1:V2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="P10:P12"/>
@@ -15619,183 +15796,6 @@
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:P9"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="P1:V2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
